--- a/БЖД/6.3/6.3.xlsx
+++ b/БЖД/6.3/6.3.xlsx
@@ -29,6 +29,9 @@
     <t>room_volume</t>
   </si>
   <si>
+    <t>Л пр</t>
+  </si>
+  <si>
     <r>
       <t>Кислота серная</t>
     </r>
@@ -1171,9 +1174,6 @@
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <t>Л пр</t>
   </si>
 </sst>
 </file>
@@ -2174,15 +2174,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <cols>
+    <col min="5" max="5" width="12.6875"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="74" customHeight="1" spans="1:4">
+    <row r="1" ht="74" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2195,10 +2198,13 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="49.75" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="49.75" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>20000</v>
@@ -2209,10 +2215,18 @@
       <c r="D2" s="4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="3" ht="45.75" spans="1:4">
+      <c r="E2">
+        <f>ROUNDUP(Sheet1!B2/(Sheet1!C2-0.3*Sheet1!C2),0)</f>
+        <v>28572</v>
+      </c>
+      <c r="F2">
+        <f>ROUNDUP(E2/Sheet1!D2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="45.75" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>470000</v>
@@ -2223,10 +2237,18 @@
       <c r="D3" s="4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="4" ht="34.75" spans="1:4">
+      <c r="E3">
+        <f>ROUNDUP(Sheet1!B3/(Sheet1!C3-0.3*Sheet1!C3),0)</f>
+        <v>33572</v>
+      </c>
+      <c r="F3">
+        <f>ROUNDUP(E3/Sheet1!D3,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="34.75" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
         <v>520000</v>
@@ -2237,10 +2259,18 @@
       <c r="D4" s="4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="5" ht="60.75" spans="1:4">
+      <c r="E4">
+        <f>ROUNDUP(Sheet1!B4/(Sheet1!C4-0.3*Sheet1!C4),0)</f>
+        <v>37143</v>
+      </c>
+      <c r="F4">
+        <f>ROUNDUP(E4/Sheet1!D4,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="60.75" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4">
         <v>3000</v>
@@ -2251,10 +2281,18 @@
       <c r="D5" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" ht="49.75" spans="1:4">
+      <c r="E5">
+        <f>ROUNDUP(Sheet1!B5/(Sheet1!C5-0.3*Sheet1!C5),0)</f>
+        <v>4286</v>
+      </c>
+      <c r="F5">
+        <f>ROUNDUP(E5/Sheet1!D5,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="49.75" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4">
         <v>100</v>
@@ -2265,10 +2303,18 @@
       <c r="D6" s="4">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" ht="49.75" spans="1:4">
+      <c r="E6">
+        <f>ROUNDUP(Sheet1!B6/(Sheet1!C6-0.3*Sheet1!C6),0)</f>
+        <v>286</v>
+      </c>
+      <c r="F6">
+        <f>ROUNDUP(E6/Sheet1!D6,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="49.75" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4">
         <v>5000</v>
@@ -2279,10 +2325,18 @@
       <c r="D7" s="4">
         <v>4000</v>
       </c>
-    </row>
-    <row r="8" ht="34.75" spans="1:4">
+      <c r="E7">
+        <f>ROUNDUP(Sheet1!B7/(Sheet1!C7-0.3*Sheet1!C7),0)</f>
+        <v>7143</v>
+      </c>
+      <c r="F7">
+        <f>ROUNDUP(E7/Sheet1!D7,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="34.75" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4">
         <v>10000</v>
@@ -2293,10 +2347,18 @@
       <c r="D8" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" ht="45.75" spans="1:4">
+      <c r="E8">
+        <f>ROUNDUP(Sheet1!B8/(Sheet1!C8-0.3*Sheet1!C8),0)</f>
+        <v>2858</v>
+      </c>
+      <c r="F8">
+        <f>ROUNDUP(E8/Sheet1!D8,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="45.75" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4">
         <v>600</v>
@@ -2307,10 +2369,18 @@
       <c r="D9" s="4">
         <v>4000</v>
       </c>
-    </row>
-    <row r="10" ht="49.75" spans="1:4">
+      <c r="E9">
+        <f>ROUNDUP(Sheet1!B9/(Sheet1!C9-0.3*Sheet1!C9),0)</f>
+        <v>4286</v>
+      </c>
+      <c r="F9">
+        <f>ROUNDUP(E9/Sheet1!D9,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="49.75" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4">
         <v>5000</v>
@@ -2321,10 +2391,18 @@
       <c r="D10" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" ht="49.75" spans="1:4">
+      <c r="E10">
+        <f>ROUNDUP(Sheet1!B10/(Sheet1!C10-0.3*Sheet1!C10),0)</f>
+        <v>3572</v>
+      </c>
+      <c r="F10">
+        <f>ROUNDUP(E10/Sheet1!D10,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" ht="49.75" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4">
         <v>7000</v>
@@ -2335,10 +2413,18 @@
       <c r="D11" s="4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="12" ht="34.75" spans="1:4">
+      <c r="E11">
+        <f>ROUNDUP(Sheet1!B11/(Sheet1!C11-0.3*Sheet1!C11),0)</f>
+        <v>3334</v>
+      </c>
+      <c r="F11">
+        <f>ROUNDUP(E11/Sheet1!D11,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="34.75" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4">
         <v>200</v>
@@ -2349,10 +2435,18 @@
       <c r="D12" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" ht="34.75" spans="1:4">
+      <c r="E12">
+        <f>ROUNDUP(Sheet1!B12/(Sheet1!C12-0.3*Sheet1!C12),0)</f>
+        <v>2858</v>
+      </c>
+      <c r="F12">
+        <f>ROUNDUP(E12/Sheet1!D12,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="34.75" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4">
         <v>250000</v>
@@ -2363,10 +2457,18 @@
       <c r="D13" s="4">
         <v>200</v>
       </c>
-    </row>
-    <row r="14" ht="34.75" spans="1:4">
+      <c r="E13">
+        <f>ROUNDUP(Sheet1!B13/(Sheet1!C13-0.3*Sheet1!C13),0)</f>
+        <v>358</v>
+      </c>
+      <c r="F13">
+        <f>ROUNDUP(E13/Sheet1!D13,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="34.75" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4">
         <v>4000</v>
@@ -2377,10 +2479,18 @@
       <c r="D14" s="4">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" ht="34.75" spans="1:4">
+      <c r="E14">
+        <f>ROUNDUP(Sheet1!B14/(Sheet1!C14-0.3*Sheet1!C14),0)</f>
+        <v>381</v>
+      </c>
+      <c r="F14">
+        <f>ROUNDUP(E14/Sheet1!D14,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="34.75" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4">
         <v>500</v>
@@ -2391,10 +2501,18 @@
       <c r="D15" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" ht="34.75" spans="1:4">
+      <c r="E15">
+        <f>ROUNDUP(Sheet1!B15/(Sheet1!C15-0.3*Sheet1!C15),0)</f>
+        <v>2381</v>
+      </c>
+      <c r="F15">
+        <f>ROUNDUP(E15/Sheet1!D15,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="34.75" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>430000</v>
@@ -2405,10 +2523,18 @@
       <c r="D16" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="17" ht="64.75" spans="1:4">
+      <c r="E16">
+        <f>ROUNDUP(Sheet1!B16/(Sheet1!C16-0.3*Sheet1!C16),0)</f>
+        <v>3072</v>
+      </c>
+      <c r="F16">
+        <f>ROUNDUP(E16/Sheet1!D16,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" ht="64.75" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4">
         <v>8000</v>
@@ -2419,10 +2545,18 @@
       <c r="D17" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="18" ht="60.75" spans="1:4">
+      <c r="E17">
+        <f>ROUNDUP(Sheet1!B17/(Sheet1!C17-0.3*Sheet1!C17),0)</f>
+        <v>2286</v>
+      </c>
+      <c r="F17">
+        <f>ROUNDUP(E17/Sheet1!D17,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" ht="60.75" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4">
         <v>100</v>
@@ -2433,10 +2567,18 @@
       <c r="D18" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="19" ht="49.75" spans="1:4">
+      <c r="E18">
+        <f>ROUNDUP(Sheet1!B18/(Sheet1!C18-0.3*Sheet1!C18),0)</f>
+        <v>14286</v>
+      </c>
+      <c r="F18">
+        <f>ROUNDUP(E18/Sheet1!D18,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" ht="49.75" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4">
         <v>5</v>
@@ -2447,10 +2589,18 @@
       <c r="D19" s="4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="20" ht="30.75" spans="1:4">
+      <c r="E19">
+        <f>ROUNDUP(Sheet1!B19/(Sheet1!C19-0.3*Sheet1!C19),0)</f>
+        <v>47620</v>
+      </c>
+      <c r="F19">
+        <f>ROUNDUP(E19/Sheet1!D19,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" ht="30.75" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4">
         <v>3000</v>
@@ -2461,10 +2611,18 @@
       <c r="D20" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="21" ht="30.75" spans="1:4">
+      <c r="E20">
+        <f>ROUNDUP(Sheet1!B20/(Sheet1!C20-0.3*Sheet1!C20),0)</f>
+        <v>4286</v>
+      </c>
+      <c r="F20">
+        <f>ROUNDUP(E20/Sheet1!D20,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" ht="30.75" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="4">
         <v>200</v>
@@ -2475,10 +2633,18 @@
       <c r="D21" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="22" ht="64.75" spans="1:4">
+      <c r="E21">
+        <f>ROUNDUP(Sheet1!B21/(Sheet1!C21-0.3*Sheet1!C21),0)</f>
+        <v>5715</v>
+      </c>
+      <c r="F21">
+        <f>ROUNDUP(E21/Sheet1!D21,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" ht="64.75" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4">
         <v>20</v>
@@ -2489,10 +2655,18 @@
       <c r="D22" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="23" ht="49.75" spans="1:4">
+      <c r="E22">
+        <f>ROUNDUP(Sheet1!B22/(Sheet1!C22-0.3*Sheet1!C22),0)</f>
+        <v>2858</v>
+      </c>
+      <c r="F22">
+        <f>ROUNDUP(E22/Sheet1!D22,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="49.75" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4">
         <v>400</v>
@@ -2503,10 +2677,18 @@
       <c r="D23" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" ht="49.75" spans="1:4">
+      <c r="E23">
+        <f>ROUNDUP(Sheet1!B23/(Sheet1!C23-0.3*Sheet1!C23),0)</f>
+        <v>58</v>
+      </c>
+      <c r="F23">
+        <f>ROUNDUP(E23/Sheet1!D23,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" ht="49.75" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="4">
         <v>100</v>
@@ -2517,10 +2699,18 @@
       <c r="D24" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" ht="49.75" spans="1:4">
+      <c r="E24">
+        <f>ROUNDUP(Sheet1!B24/(Sheet1!C24-0.3*Sheet1!C24),0)</f>
+        <v>143</v>
+      </c>
+      <c r="F24">
+        <f>ROUNDUP(E24/Sheet1!D24,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" ht="49.75" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" s="4">
         <v>500</v>
@@ -2531,10 +2721,18 @@
       <c r="D25" s="4">
         <v>200</v>
       </c>
-    </row>
-    <row r="26" ht="49.75" spans="1:4">
+      <c r="E25">
+        <f>ROUNDUP(Sheet1!B25/(Sheet1!C25-0.3*Sheet1!C25),0)</f>
+        <v>715</v>
+      </c>
+      <c r="F25">
+        <f>ROUNDUP(E25/Sheet1!D25,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" ht="49.75" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="4">
         <v>250</v>
@@ -2545,10 +2743,18 @@
       <c r="D26" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" ht="45.75" spans="1:4">
+      <c r="E26">
+        <f>ROUNDUP(Sheet1!B26/(Sheet1!C26-0.3*Sheet1!C26),0)</f>
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <f>ROUNDUP(E26/Sheet1!D26,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" ht="45.75" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" s="4">
         <v>30000</v>
@@ -2559,10 +2765,18 @@
       <c r="D27" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="28" ht="34.75" spans="1:4">
+      <c r="E27">
+        <f>ROUNDUP(Sheet1!B27/(Sheet1!C27-0.3*Sheet1!C27),0)</f>
+        <v>2143</v>
+      </c>
+      <c r="F27">
+        <f>ROUNDUP(E27/Sheet1!D27,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" ht="34.75" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="4">
         <v>20000</v>
@@ -2573,10 +2787,18 @@
       <c r="D28" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="29" ht="64.75" spans="1:4">
+      <c r="E28">
+        <f>ROUNDUP(Sheet1!B28/(Sheet1!C28-0.3*Sheet1!C28),0)</f>
+        <v>2858</v>
+      </c>
+      <c r="F28">
+        <f>ROUNDUP(E28/Sheet1!D28,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" ht="64.75" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="4">
         <v>350</v>
@@ -2587,10 +2809,18 @@
       <c r="D29" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" ht="34.75" spans="1:4">
+      <c r="E29">
+        <f>ROUNDUP(Sheet1!B29/(Sheet1!C29-0.3*Sheet1!C29),0)</f>
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <f>ROUNDUP(E29/Sheet1!D29,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" ht="34.75" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" s="4">
         <v>55000</v>
@@ -2601,10 +2831,18 @@
       <c r="D30" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="31" ht="34.75" spans="1:4">
+      <c r="E30">
+        <f>ROUNDUP(Sheet1!B30/(Sheet1!C30-0.3*Sheet1!C30),0)</f>
+        <v>3929</v>
+      </c>
+      <c r="F30">
+        <f>ROUNDUP(E30/Sheet1!D30,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" ht="34.75" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" s="4">
         <v>350000</v>
@@ -2614,6 +2852,14 @@
       </c>
       <c r="D31" s="4">
         <v>2000</v>
+      </c>
+      <c r="E31">
+        <f>ROUNDUP(Sheet1!B31/(Sheet1!C31-0.3*Sheet1!C31),0)</f>
+        <v>2500</v>
+      </c>
+      <c r="F31">
+        <f>ROUNDUP(E31/Sheet1!D31,0)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2625,323 +2871,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="12.6875"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <f>ROUNDUP(Sheet1!B2/(Sheet1!C2-0.3*Sheet1!C2),0)</f>
-        <v>28572</v>
-      </c>
-      <c r="B2">
-        <f>ROUNDUP(A2/Sheet1!D2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <f>ROUNDUP(Sheet1!B3/(Sheet1!C3-0.3*Sheet1!C3),0)</f>
-        <v>33572</v>
-      </c>
-      <c r="B3">
-        <f>ROUNDUP(A3/Sheet1!D3,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <f>ROUNDUP(Sheet1!B4/(Sheet1!C4-0.3*Sheet1!C4),0)</f>
-        <v>37143</v>
-      </c>
-      <c r="B4">
-        <f>ROUNDUP(A4/Sheet1!D4,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <f>ROUNDUP(Sheet1!B5/(Sheet1!C5-0.3*Sheet1!C5),0)</f>
-        <v>4286</v>
-      </c>
-      <c r="B5">
-        <f>ROUNDUP(A5/Sheet1!D5,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <f>ROUNDUP(Sheet1!B6/(Sheet1!C6-0.3*Sheet1!C6),0)</f>
-        <v>286</v>
-      </c>
-      <c r="B6">
-        <f>ROUNDUP(A6/Sheet1!D6,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <f>ROUNDUP(Sheet1!B7/(Sheet1!C7-0.3*Sheet1!C7),0)</f>
-        <v>7143</v>
-      </c>
-      <c r="B7">
-        <f>ROUNDUP(A7/Sheet1!D7,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <f>ROUNDUP(Sheet1!B8/(Sheet1!C8-0.3*Sheet1!C8),0)</f>
-        <v>2858</v>
-      </c>
-      <c r="B8">
-        <f>ROUNDUP(A8/Sheet1!D8,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <f>ROUNDUP(Sheet1!B9/(Sheet1!C9-0.3*Sheet1!C9),0)</f>
-        <v>4286</v>
-      </c>
-      <c r="B9">
-        <f>ROUNDUP(A9/Sheet1!D9,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <f>ROUNDUP(Sheet1!B10/(Sheet1!C10-0.3*Sheet1!C10),0)</f>
-        <v>3572</v>
-      </c>
-      <c r="B10">
-        <f>ROUNDUP(A10/Sheet1!D10,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <f>ROUNDUP(Sheet1!B11/(Sheet1!C11-0.3*Sheet1!C11),0)</f>
-        <v>3334</v>
-      </c>
-      <c r="B11">
-        <f>ROUNDUP(A11/Sheet1!D11,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <f>ROUNDUP(Sheet1!B12/(Sheet1!C12-0.3*Sheet1!C12),0)</f>
-        <v>2858</v>
-      </c>
-      <c r="B12">
-        <f>ROUNDUP(A12/Sheet1!D12,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <f>ROUNDUP(Sheet1!B13/(Sheet1!C13-0.3*Sheet1!C13),0)</f>
-        <v>358</v>
-      </c>
-      <c r="B13">
-        <f>ROUNDUP(A13/Sheet1!D13,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <f>ROUNDUP(Sheet1!B14/(Sheet1!C14-0.3*Sheet1!C14),0)</f>
-        <v>381</v>
-      </c>
-      <c r="B14">
-        <f>ROUNDUP(A14/Sheet1!D14,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <f>ROUNDUP(Sheet1!B15/(Sheet1!C15-0.3*Sheet1!C15),0)</f>
-        <v>2381</v>
-      </c>
-      <c r="B15">
-        <f>ROUNDUP(A15/Sheet1!D15,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <f>ROUNDUP(Sheet1!B16/(Sheet1!C16-0.3*Sheet1!C16),0)</f>
-        <v>3072</v>
-      </c>
-      <c r="B16">
-        <f>ROUNDUP(A16/Sheet1!D16,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <f>ROUNDUP(Sheet1!B17/(Sheet1!C17-0.3*Sheet1!C17),0)</f>
-        <v>2286</v>
-      </c>
-      <c r="B17">
-        <f>ROUNDUP(A17/Sheet1!D17,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <f>ROUNDUP(Sheet1!B18/(Sheet1!C18-0.3*Sheet1!C18),0)</f>
-        <v>14286</v>
-      </c>
-      <c r="B18">
-        <f>ROUNDUP(A18/Sheet1!D18,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <f>ROUNDUP(Sheet1!B19/(Sheet1!C19-0.3*Sheet1!C19),0)</f>
-        <v>47620</v>
-      </c>
-      <c r="B19">
-        <f>ROUNDUP(A19/Sheet1!D19,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <f>ROUNDUP(Sheet1!B20/(Sheet1!C20-0.3*Sheet1!C20),0)</f>
-        <v>4286</v>
-      </c>
-      <c r="B20">
-        <f>ROUNDUP(A20/Sheet1!D20,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <f>ROUNDUP(Sheet1!B21/(Sheet1!C21-0.3*Sheet1!C21),0)</f>
-        <v>5715</v>
-      </c>
-      <c r="B21">
-        <f>ROUNDUP(A21/Sheet1!D21,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <f>ROUNDUP(Sheet1!B22/(Sheet1!C22-0.3*Sheet1!C22),0)</f>
-        <v>2858</v>
-      </c>
-      <c r="B22">
-        <f>ROUNDUP(A22/Sheet1!D22,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <f>ROUNDUP(Sheet1!B23/(Sheet1!C23-0.3*Sheet1!C23),0)</f>
-        <v>58</v>
-      </c>
-      <c r="B23">
-        <f>ROUNDUP(A23/Sheet1!D23,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <f>ROUNDUP(Sheet1!B24/(Sheet1!C24-0.3*Sheet1!C24),0)</f>
-        <v>143</v>
-      </c>
-      <c r="B24">
-        <f>ROUNDUP(A24/Sheet1!D24,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <f>ROUNDUP(Sheet1!B25/(Sheet1!C25-0.3*Sheet1!C25),0)</f>
-        <v>715</v>
-      </c>
-      <c r="B25">
-        <f>ROUNDUP(A25/Sheet1!D25,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <f>ROUNDUP(Sheet1!B26/(Sheet1!C26-0.3*Sheet1!C26),0)</f>
-        <v>60</v>
-      </c>
-      <c r="B26">
-        <f>ROUNDUP(A26/Sheet1!D26,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <f>ROUNDUP(Sheet1!B27/(Sheet1!C27-0.3*Sheet1!C27),0)</f>
-        <v>2143</v>
-      </c>
-      <c r="B27">
-        <f>ROUNDUP(A27/Sheet1!D27,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <f>ROUNDUP(Sheet1!B28/(Sheet1!C28-0.3*Sheet1!C28),0)</f>
-        <v>2858</v>
-      </c>
-      <c r="B28">
-        <f>ROUNDUP(A28/Sheet1!D28,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <f>ROUNDUP(Sheet1!B29/(Sheet1!C29-0.3*Sheet1!C29),0)</f>
-        <v>50</v>
-      </c>
-      <c r="B29">
-        <f>ROUNDUP(A29/Sheet1!D29,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <f>ROUNDUP(Sheet1!B30/(Sheet1!C30-0.3*Sheet1!C30),0)</f>
-        <v>3929</v>
-      </c>
-      <c r="B30">
-        <f>ROUNDUP(A30/Sheet1!D30,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <f>ROUNDUP(Sheet1!B31/(Sheet1!C31-0.3*Sheet1!C31),0)</f>
-        <v>2500</v>
-      </c>
-      <c r="B31">
-        <f>ROUNDUP(A31/Sheet1!D31,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
